--- a/dados.xlsx
+++ b/dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\DimFlexS-6118\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B307F1E-1AE3-496A-9D2F-B46B2D83882A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4BD485A-260A-411E-8E04-73F277F57433}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9705" yWindow="1470" windowWidth="19950" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6945" yWindow="1890" windowWidth="19950" windowHeight="13065" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -398,12 +398,13 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="14" max="14" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -495,7 +496,7 @@
       <c r="M2">
         <v>1.1499999999999999</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="2">
         <v>0</v>
       </c>
       <c r="O2" s="2">
